--- a/m1/Ejercicios/20191106/excel-11-lista-productos.xlsx
+++ b/m1/Ejercicios/20191106/excel-11-lista-productos.xlsx
@@ -672,7 +672,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,6 +682,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,11 +704,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,9 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U80"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:M19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3592,9 +3598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6115,9 +6119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="A4:E80"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7467,9 +7469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7481,7 +7481,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="A1" s="4" t="s">
         <v>194</v>
       </c>
     </row>
@@ -7636,7 +7636,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="A19" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -7753,9 +7753,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="A32" s="4" t="s">
         <v>196</v>
       </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
@@ -7950,7 +7953,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+      <c r="A61" s="4" t="s">
         <v>200</v>
       </c>
     </row>
@@ -8053,7 +8056,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+      <c r="A73" s="4" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8228,7 +8231,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+      <c r="A88" s="4" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8289,7 +8292,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
+      <c r="A97" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -8370,5 +8373,6 @@
     <sortCondition ref="B101:B108"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>